--- a/main_script/output/table_5.xlsx
+++ b/main_script/output/table_5.xlsx
@@ -14,84 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>1.000 GHz</t>
+  </si>
+  <si>
+    <t>21.297 dB</t>
+  </si>
+  <si>
+    <t>38803.457K</t>
+  </si>
+  <si>
+    <t>0.681 dB</t>
+  </si>
+  <si>
+    <t>1.500 GHz</t>
+  </si>
+  <si>
+    <t>21.785 dB</t>
+  </si>
+  <si>
+    <t>43451.250 K</t>
+  </si>
+  <si>
+    <t>0.654 dB</t>
+  </si>
+  <si>
+    <t>2.000 GHz</t>
+  </si>
+  <si>
+    <t>22.051 dB</t>
+  </si>
+  <si>
+    <t>46219.216 K</t>
+  </si>
+  <si>
+    <t>1.201 dB</t>
+  </si>
+  <si>
+    <t>2.500 GHz</t>
+  </si>
+  <si>
+    <t>21.564 dB</t>
+  </si>
+  <si>
+    <t>41284.808 K</t>
+  </si>
+  <si>
+    <t>1.981 dB</t>
+  </si>
+  <si>
+    <t>3.000 GHz</t>
+  </si>
+  <si>
+    <t>22.348 dB</t>
+  </si>
+  <si>
+    <t>49511.121 K</t>
+  </si>
+  <si>
+    <t>2.535 dB</t>
+  </si>
+  <si>
+    <t>3.500 GHz</t>
+  </si>
+  <si>
+    <t>22.143 dB</t>
+  </si>
+  <si>
+    <t>47208.777 K</t>
+  </si>
+  <si>
+    <t>3.382 dB</t>
+  </si>
   <si>
     <t>4.000 GHz</t>
   </si>
   <si>
-    <t>21.297</t>
-  </si>
-  <si>
-    <t>38803.457 kK</t>
-  </si>
-  <si>
-    <t>0.681 dB</t>
-  </si>
-  <si>
-    <t>1.500 GHz</t>
-  </si>
-  <si>
-    <t>21.785 dB</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>0.654 dB</t>
-  </si>
-  <si>
-    <t>2.000 GHz</t>
-  </si>
-  <si>
-    <t>22.051 dB</t>
-  </si>
-  <si>
-    <t>46219.216 K|</t>
-  </si>
-  <si>
-    <t>1.201 dB</t>
-  </si>
-  <si>
-    <t>2.500 GHz</t>
-  </si>
-  <si>
-    <t>21.564 dB</t>
-  </si>
-  <si>
-    <t>41284 808</t>
-  </si>
-  <si>
-    <t>1.981 dB</t>
-  </si>
-  <si>
-    <t>3.000 GHz</t>
-  </si>
-  <si>
-    <t>22.348 dB</t>
-  </si>
-  <si>
-    <t>49511.121</t>
-  </si>
-  <si>
-    <t>2.535 dB</t>
-  </si>
-  <si>
-    <t>3.500 GHz</t>
-  </si>
-  <si>
-    <t>22.143 dB</t>
-  </si>
-  <si>
-    <t>47208.777 K</t>
-  </si>
-  <si>
-    <t>3.382 dB</t>
-  </si>
-  <si>
     <t>21.559 dB</t>
   </si>
   <si>
-    <t>41234.481</t>
+    <t>41234.481 K</t>
   </si>
   <si>
     <t>2.742 dB</t>
@@ -452,7 +455,7 @@
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -542,16 +545,16 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
